--- a/2ML70 Pinouts.xlsx
+++ b/2ML70 Pinouts.xlsx
@@ -9,10 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9023" windowHeight="7808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9023" windowHeight="7808" tabRatio="821" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blank" sheetId="2" r:id="rId1"/>
+    <sheet name="Inverter X1" sheetId="1" r:id="rId2"/>
+    <sheet name="Batt Current Sens" sheetId="3" r:id="rId3"/>
+    <sheet name="Contactor Relay" sheetId="4" r:id="rId4"/>
+    <sheet name="Contactor Relay (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Inverter Cover" sheetId="5" r:id="rId6"/>
+    <sheet name="Drive Motor Assem1st" sheetId="7" r:id="rId7"/>
+    <sheet name="Drive Motor Assem2nd" sheetId="8" r:id="rId8"/>
+    <sheet name="Trans control module" sheetId="9" r:id="rId9"/>
+    <sheet name="Eninge to Transmission" sheetId="10" r:id="rId10"/>
+    <sheet name="HV Connections" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,32 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
-  <si>
-    <t>2ML70 Inverter</t>
-  </si>
-  <si>
-    <t>Connector X1(HP2)</t>
-  </si>
-  <si>
-    <t>OEM Part # 13570045</t>
-  </si>
-  <si>
-    <t>Service Part # 19180279</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="191">
   <si>
     <t>56 way F Micropack 64 series sealed (BK)</t>
   </si>
   <si>
-    <t>Terminal/tray 15359541/4</t>
-  </si>
-  <si>
-    <t>Core/insulation crimp M/M</t>
-  </si>
-  <si>
-    <t>Release tool 15381651-2/J-35616-64B (L-BU)</t>
-  </si>
-  <si>
     <t>Pin</t>
   </si>
   <si>
@@ -237,13 +226,394 @@
   </si>
   <si>
     <t>Presume an error here, and one should be negative?</t>
+  </si>
+  <si>
+    <t>Terminal/tray</t>
+  </si>
+  <si>
+    <t>Core/insulation crimp</t>
+  </si>
+  <si>
+    <t>Release tool</t>
+  </si>
+  <si>
+    <t>OEM Part #</t>
+  </si>
+  <si>
+    <t>Service Part #</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>X1(HP2)</t>
+  </si>
+  <si>
+    <t>15359541/4</t>
+  </si>
+  <si>
+    <t>M/M</t>
+  </si>
+  <si>
+    <t>15381651-2/J-35616-64B (L-BU)</t>
+  </si>
+  <si>
+    <t>2ML70 Project</t>
+  </si>
+  <si>
+    <t>Drive Motor Battery Current Sensor</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>3-Way F (NA)</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Current Sensor Control</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Current Sensor Signal</t>
+  </si>
+  <si>
+    <t>Drive Motor Battery Negative High Voltage Contactor Relay X1 (HP2)</t>
+  </si>
+  <si>
+    <t>7283-1020</t>
+  </si>
+  <si>
+    <t>2-Way F 2.3 Series (NA)</t>
+  </si>
+  <si>
+    <t>L-GN/YE</t>
+  </si>
+  <si>
+    <t>Relay Control</t>
+  </si>
+  <si>
+    <t>BK/WH</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Drive Motor Battery Positive High Voltage Contactor Relay X1 (HP2)</t>
+  </si>
+  <si>
+    <t>2-Way F 2.3 Series (L-GY)</t>
+  </si>
+  <si>
+    <t>L-GN/BK</t>
+  </si>
+  <si>
+    <t>WH/BK</t>
+  </si>
+  <si>
+    <t>Inverter Module Cover</t>
+  </si>
+  <si>
+    <t>2-Way F Metri-Pack 280 Series, Sealed (BK)</t>
+  </si>
+  <si>
+    <t>12077411/2</t>
+  </si>
+  <si>
+    <t>12094430/J-35616-4A (PU)</t>
+  </si>
+  <si>
+    <t>High Voltage Interlock Circuit</t>
+  </si>
+  <si>
+    <t>Internal Transmission - Drive Motor With Generator Assembly 1st Position</t>
+  </si>
+  <si>
+    <t>service by harness</t>
+  </si>
+  <si>
+    <t>10-way F</t>
+  </si>
+  <si>
+    <t>Service by harness</t>
+  </si>
+  <si>
+    <t>Motor 1 Resolver Sensor Exciter Negative</t>
+  </si>
+  <si>
+    <t>Motor 2 Resolver Sensor Exciter Negative</t>
+  </si>
+  <si>
+    <t>Motor 1 Resolver Sensor Exciter Positive</t>
+  </si>
+  <si>
+    <t>Motor 1 Resolver Sensor 1</t>
+  </si>
+  <si>
+    <t>Motor 1 Resolver Sensor 2</t>
+  </si>
+  <si>
+    <t>Motor 1 Resolver Sensor 3</t>
+  </si>
+  <si>
+    <t>Motor 1 Resolver Sensor 4</t>
+  </si>
+  <si>
+    <t>Motor 1 Temperature Sensor Signal</t>
+  </si>
+  <si>
+    <t>Motor 1 Temperature Sensor Return</t>
+  </si>
+  <si>
+    <t>0.5 BARE</t>
+  </si>
+  <si>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Internal Transmission - Drive Motor With Generator Assembly 2nd Position</t>
+  </si>
+  <si>
+    <t>Motor 2 Resolver Sensor Exciter Positive</t>
+  </si>
+  <si>
+    <t>Motor 2 Resolver Sensor 1</t>
+  </si>
+  <si>
+    <t>Motor 2 Resolver Sensor 2</t>
+  </si>
+  <si>
+    <t>Motor 2 Resolver Sensor 3</t>
+  </si>
+  <si>
+    <t>Motor 2 Resolver Sensor 4</t>
+  </si>
+  <si>
+    <t>Motor 2 Temperature Sensor Signal</t>
+  </si>
+  <si>
+    <t>Motor 2 Temperature Sensor Return</t>
+  </si>
+  <si>
+    <t>Transmission Control Module (TCM) (M30)</t>
+  </si>
+  <si>
+    <t>Conn 49-way F Micro-64 GT 280 Series Sealed (BK)</t>
+  </si>
+  <si>
+    <t>15304719/19</t>
+  </si>
+  <si>
+    <t>15315247/J-35616-4A (PU)</t>
+  </si>
+  <si>
+    <t>0.35 OG</t>
+  </si>
+  <si>
+    <t>0.35 OG/BK</t>
+  </si>
+  <si>
+    <t>0.35 D-BU</t>
+  </si>
+  <si>
+    <t>0.5 WH</t>
+  </si>
+  <si>
+    <t>TCC PWM Solenoid Valve Control</t>
+  </si>
+  <si>
+    <t>1-2 shift solenoid volve control</t>
+  </si>
+  <si>
+    <t>Input Shaft Speed Signal (ISS)</t>
+  </si>
+  <si>
+    <t>Replicated TOS Signal</t>
+  </si>
+  <si>
+    <t>High Speed GMLAN Serial Data Bus -</t>
+  </si>
+  <si>
+    <t>High Speed GMLAN Serial Data Bus +</t>
+  </si>
+  <si>
+    <t>Acessory Wake Up Serial Data</t>
+  </si>
+  <si>
+    <t>3-2 Shift Solenoid Valve Control</t>
+  </si>
+  <si>
+    <t>0.5 YE/BK</t>
+  </si>
+  <si>
+    <t>0.35 GY</t>
+  </si>
+  <si>
+    <t>0.35 PK</t>
+  </si>
+  <si>
+    <t>0.35 TN/WH</t>
+  </si>
+  <si>
+    <t>0.35 TN</t>
+  </si>
+  <si>
+    <t>VSS High Signal</t>
+  </si>
+  <si>
+    <t>PC Solenoid Valve Low Control</t>
+  </si>
+  <si>
+    <t>2-3 Shift Solenoid Valve Control</t>
+  </si>
+  <si>
+    <t>Transmission Range Switch Signal C</t>
+  </si>
+  <si>
+    <t>Transmission Fluid Pressure Switch Signal A</t>
+  </si>
+  <si>
+    <t>TCC Solenoid Valve Control</t>
+  </si>
+  <si>
+    <t>Transmission Range Switch Signal A</t>
+  </si>
+  <si>
+    <t>0.5 RD/WH</t>
+  </si>
+  <si>
+    <t>0.5 PK</t>
+  </si>
+  <si>
+    <t>0.35 WH</t>
+  </si>
+  <si>
+    <t>Battery positive Voltage</t>
+  </si>
+  <si>
+    <t>Transmission Fluid Pressure Switch Signal C</t>
+  </si>
+  <si>
+    <t>Transmission Fluid Temperature (TFT) Sensor Signal</t>
+  </si>
+  <si>
+    <t>Tranmission Range Switch Signal P</t>
+  </si>
+  <si>
+    <t>0.5 PU/WH</t>
+  </si>
+  <si>
+    <t>0.35 L-BU</t>
+  </si>
+  <si>
+    <t>0.8 BK/WH</t>
+  </si>
+  <si>
+    <t>Pressure Control (PC) Solenoid Valve High Control</t>
+  </si>
+  <si>
+    <t>VSS Low Signal</t>
+  </si>
+  <si>
+    <t>Brake Switch Signal</t>
+  </si>
+  <si>
+    <t>Transmission Fluid Pressure Switch Signal B</t>
+  </si>
+  <si>
+    <t>Transmission Range Switch Signal B</t>
+  </si>
+  <si>
+    <t>Pins 1-48: E/5 Pin 49: 2/5</t>
+  </si>
+  <si>
+    <t>x176 Engine Harness to Transmission Harness (M99)</t>
+  </si>
+  <si>
+    <t>24-Way F 1.5 Series Sealed (BK)</t>
+  </si>
+  <si>
+    <t>33001-1004/23</t>
+  </si>
+  <si>
+    <t>E/C</t>
+  </si>
+  <si>
+    <t>12094429/J-35616-14 (GN)</t>
+  </si>
+  <si>
+    <t>0.5 OG/WH</t>
+  </si>
+  <si>
+    <t>Internal Mode Switch Direction Signal R1</t>
+  </si>
+  <si>
+    <t>Internal Mode Switch Direction Signal R2</t>
+  </si>
+  <si>
+    <t>Internal Mode Switch Direction Signal D1</t>
+  </si>
+  <si>
+    <t>Internal Mode Switch Direction Signal D2</t>
+  </si>
+  <si>
+    <t>Internal Mode Switch Signal - START</t>
+  </si>
+  <si>
+    <t>Output Speed Sensor (OSS) Signal</t>
+  </si>
+  <si>
+    <t>0.5 D-BU/WH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,13 +621,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,8 +656,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +714,436 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>398786</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4538663" y="542925"/>
+          <a:ext cx="10114286" cy="6695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8243455" cy="6492568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>417428</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>84628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5062538" y="1085850"/>
+          <a:ext cx="13371428" cy="8771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8147</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>94333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5062538" y="1085850"/>
+          <a:ext cx="11019047" cy="7333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>303790</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5062538" y="1085850"/>
+          <a:ext cx="8076190" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17914</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5062538" y="1266825"/>
+          <a:ext cx="9085714" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5062538" y="1266825"/>
+          <a:ext cx="7057143" cy="4590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>436476</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>103676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5710238" y="1085850"/>
+          <a:ext cx="13390476" cy="8790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>94019</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5024438" y="647700"/>
+          <a:ext cx="9847619" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>265047</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5710238" y="723900"/>
+          <a:ext cx="13219047" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,310 +1409,1098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15483856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>88988936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
+      <c r="B20" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>9</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>12</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>14</v>
       </c>
-      <c r="B27" t="s">
-        <v>26</v>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
-        <v>30</v>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
-        <v>34</v>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
-        <v>35</v>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
-        <v>36</v>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>21</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>22</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>40</v>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>24</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13570045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19180279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>24</v>
+      </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -865,10 +2508,10 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -876,10 +2519,10 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -887,10 +2530,10 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -898,10 +2541,10 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -909,10 +2552,10 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -920,7 +2563,7 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -928,7 +2571,7 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -936,10 +2579,10 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
         <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -947,7 +2590,7 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -955,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -963,10 +2606,10 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -974,10 +2617,10 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -985,7 +2628,7 @@
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -993,7 +2636,7 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1001,10 +2644,10 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1012,7 +2655,7 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1020,10 +2663,10 @@
         <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -1031,7 +2674,7 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -1039,10 +2682,10 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -1050,10 +2693,10 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -1061,10 +2704,10 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -1072,10 +2715,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -1083,10 +2726,10 @@
         <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -1094,10 +2737,10 @@
         <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1105,10 +2748,10 @@
         <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -1116,10 +2759,10 @@
         <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -1127,10 +2770,10 @@
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1138,10 +2781,10 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -1149,10 +2792,10 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -1160,10 +2803,10 @@
         <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1171,13 +2814,13 @@
         <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -1185,13 +2828,1707 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>88953305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>88953305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12077900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12116247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>29544347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2954348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15463921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>89046898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>